--- a/JavaBatch8/src/com/syntax/class36/OutputData.xlsx
+++ b/JavaBatch8/src/com/syntax/class36/OutputData.xlsx
@@ -12,7 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +64,13 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>